--- a/biology/Neurosciences/Satiation_sémantique/Satiation_sémantique.xlsx
+++ b/biology/Neurosciences/Satiation_sémantique/Satiation_sémantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Satiation_s%C3%A9mantique</t>
+          <t>Satiation_sémantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La satiation sémantique, saturation sémantique ou encore satiation verbale est un phénomène psychologique au cours duquel la répétition d'un mot ou d'une expression provoque une perte temporaire du signifié auprès de l'auditoire, qui perçoit alors la parole comme une suite de sons répétés dénuée de sens.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Satiation_s%C3%A9mantique</t>
+          <t>Satiation_sémantique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étude</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leon Jakobovits James invente l'expression « satiation sémantique » dans sa thèse de 1962 à l'université McGill[1]. Avant cela, l'expression « satiation verbale » était utilisée tout comme d'autres termes exprimant l'idée d'une fatigue psychique. La thèse répertorie de nombreux autres noms désignant ce phénomène :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leon Jakobovits James invente l'expression « satiation sémantique » dans sa thèse de 1962 à l'université McGill. Avant cela, l'expression « satiation verbale » était utilisée tout comme d'autres termes exprimant l'idée d'une fatigue psychique. La thèse répertorie de nombreux autres noms désignant ce phénomène :
 « Beaucoup d'autres noms ont été utilisés pour ce qui semble être essentiellement le même processus : inhibition (Herbert, 1824, in Boring, 1950), refractory phase and mental fatigue (Dodge, 1917; 1926a), lapse of meaning (Bassett and Warne, 1919), work decrement (Robinson and Bills, 1926), cortical inhibition (Pavlov, 192?), adaptation (Gibson, 1937), extinction (Hilgard and Marquis, 1940), satiation (Kohler and Wallach, 1940), reactive inhibition (Hull, 1913 [sic]), stimulus satiation (Glanzer, 1953), reminiscence (Eysenck, 1956), verbal satiation (Smith and Raygor, 1956), et verbal transformation (Warren, 1961b). »
 La thèse présente plusieurs expériences qui mettent en évidence le processus de satiation sémantique dans des tâches cognitives variées telles que :
 l'exposition à des mots et des nombres de façon répétée sur une courte durée ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Satiation_s%C3%A9mantique</t>
+          <t>Satiation_sémantique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phénomène a été mis à contribution pour réduire la glossophobie chez les personnes qui bégaient en induisant une satiation sémantique grâce à la répétition, diminuant l'intensité des émotions négatives déclenchées par la prise de parole[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phénomène a été mis à contribution pour réduire la glossophobie chez les personnes qui bégaient en induisant une satiation sémantique grâce à la répétition, diminuant l'intensité des émotions négatives déclenchées par la prise de parole.
 </t>
         </is>
       </c>
